--- a/data/trans_camb/P33A-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P33A-Dificultad-trans_camb.xlsx
@@ -618,13 +618,13 @@
         <v>2.957757364292524</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-7.187755000509865</v>
+        <v>-7.187755000509877</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>1.216551506152164</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-8.941301283036761</v>
+        <v>-8.941301283036751</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.676717168117903</v>
+        <v>-3.649835739757108</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-14.92912653004178</v>
+        <v>-14.74437018792377</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.7159096621889034</v>
+        <v>-1.340834793124232</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-11.52591414041319</v>
+        <v>-11.89556856864156</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.411224772645601</v>
+        <v>-1.377695508351978</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-12.24116245758727</v>
+        <v>-12.70004028170385</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.988290192024737</v>
+        <v>2.911959314084831</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-5.071257381672241</v>
+        <v>-4.614347965303435</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.26172903319104</v>
+        <v>6.512677724998431</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-2.295518637823352</v>
+        <v>-2.98329796707214</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.738526054049112</v>
+        <v>4.014932977095579</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-5.755957023074915</v>
+        <v>-5.713827458339822</v>
       </c>
     </row>
     <row r="7">
@@ -696,13 +696,13 @@
         <v>0.04404617739192833</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>-0.1070382363422513</v>
+        <v>-0.1070382363422515</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01635751467221913</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.1202229960559615</v>
+        <v>-0.1202229960559613</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.04353748136347174</v>
+        <v>-0.04374378015862751</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1800021600976375</v>
+        <v>-0.1775670781586185</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.01048871285716959</v>
+        <v>-0.0194834285269012</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1694605657496713</v>
+        <v>-0.1717804086920298</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.01878424025866919</v>
+        <v>-0.01816052826652351</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1616945228988468</v>
+        <v>-0.1674993650534399</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.03719963600899259</v>
+        <v>0.03602247530671623</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.06211597923099457</v>
+        <v>-0.05700845869375739</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1112605670845516</v>
+        <v>0.1001805550255936</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.03628062954813152</v>
+        <v>-0.04516741735153674</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.05111558265233838</v>
+        <v>0.05481365044197598</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.07768827988106798</v>
+        <v>-0.07778749263877019</v>
       </c>
     </row>
     <row r="10">
@@ -772,19 +772,19 @@
         <v>0.2231024877051957</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-6.768605069192136</v>
+        <v>-6.768605069192112</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>-0.4434631766432662</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-5.653835673704188</v>
+        <v>-5.653835673704199</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>-0.06127046064986486</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-6.260220904403957</v>
+        <v>-6.260220904403968</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.912992941943893</v>
+        <v>-3.012859338853992</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-10.57989225890999</v>
+        <v>-10.63765284863372</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.611856309084918</v>
+        <v>-4.430310962283039</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-9.204574673411953</v>
+        <v>-9.266593803514835</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.083046719952208</v>
+        <v>-2.577365621356167</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-8.854599359342998</v>
+        <v>-8.698450479644816</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.626327042370645</v>
+        <v>3.445883502632751</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-3.384982240571718</v>
+        <v>-3.055001815647368</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.20002452646202</v>
+        <v>3.477539740286175</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.830725882481896</v>
+        <v>-1.961111264129753</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.310930483328383</v>
+        <v>2.80185256004838</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-3.901030552791144</v>
+        <v>-3.801927554931236</v>
       </c>
     </row>
     <row r="13">
@@ -850,19 +850,19 @@
         <v>0.00260850081860475</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.07913812188024635</v>
+        <v>-0.0791381218802461</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.005910900925110285</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>-0.07535972381536198</v>
+        <v>-0.07535972381536213</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.0007661344439374215</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.07827868128704082</v>
+        <v>-0.07827868128704096</v>
       </c>
     </row>
     <row r="14">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.03360903050118678</v>
+        <v>-0.0344322844672275</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1225273548493208</v>
+        <v>-0.1225293788750664</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.06007034456314393</v>
+        <v>-0.05740723294811033</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.119763575742125</v>
+        <v>-0.1198084314131282</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.03775858108304335</v>
+        <v>-0.03185941059936352</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1093094705322103</v>
+        <v>-0.1068469031051431</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.04336481684792522</v>
+        <v>0.04126337097172358</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.04047807115782909</v>
+        <v>-0.03622195495850358</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.0432004058773161</v>
+        <v>0.04733145948240857</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.02552458465991233</v>
+        <v>-0.02685747375622725</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.02954413088035709</v>
+        <v>0.03565660087044396</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.04929151769927227</v>
+        <v>-0.04852622127056809</v>
       </c>
     </row>
     <row r="16">
@@ -932,19 +932,19 @@
         <v>1.471819854718537</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>1.614144617488267</v>
+        <v>1.614144617488256</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>2.004875230966408</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4.785242455448313</v>
+        <v>4.785242455448325</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>1.855936599614105</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>3.180392892726147</v>
+        <v>3.180392892726136</v>
       </c>
     </row>
     <row r="17">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.082472438212386</v>
+        <v>-1.708737210671517</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.733520185814183</v>
+        <v>-1.622870043798199</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.161147171955355</v>
+        <v>-2.469891162488601</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.39980538053697</v>
+        <v>1.072397376808417</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.9385026457837465</v>
+        <v>-0.7048084460919164</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.948967042602745</v>
+        <v>1.020413540644277</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.986638287541355</v>
+        <v>4.707393735733804</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.89387337919684</v>
+        <v>4.572403283986347</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.86556689110302</v>
+        <v>6.122839601604756</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.613216944765313</v>
+        <v>8.472367594843936</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.563623458764767</v>
+        <v>4.615335719762289</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.58063504937696</v>
+        <v>5.771977112107706</v>
       </c>
     </row>
     <row r="19">
@@ -1010,19 +1010,19 @@
         <v>0.01719435537158814</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.01885704699882379</v>
+        <v>0.01885704699882366</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.02618997605362978</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.06251031654403424</v>
+        <v>0.06251031654403438</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02288579633773066</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0392178396783762</v>
+        <v>0.03921783967837606</v>
       </c>
     </row>
     <row r="20">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.02406308195481666</v>
+        <v>-0.01942643183225023</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.01961665278171874</v>
+        <v>-0.01857909278631241</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.02735184545866579</v>
+        <v>-0.03081411467592969</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.01706475909605641</v>
+        <v>0.01327811844231953</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.01131061893694544</v>
+        <v>-0.008259301308537246</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01141135307207492</v>
+        <v>0.01270249910043502</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.05918251176373263</v>
+        <v>0.05666470051426593</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.05888580982288564</v>
+        <v>0.05474489258205115</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.07814524029564947</v>
+        <v>0.08203534405815004</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1159115229295221</v>
+        <v>0.1129809928135378</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.05779143722202251</v>
+        <v>0.05858156576726403</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0697347502622382</v>
+        <v>0.07284943604314008</v>
       </c>
     </row>
     <row r="22">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-9.552744215306493</v>
+        <v>-10.41510494582681</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.995300285529999</v>
+        <v>-4.018561884485356</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-11.15478321541182</v>
+        <v>-11.1921510975548</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.793137566991195</v>
+        <v>-2.78226860439832</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-9.105431482302949</v>
+        <v>-9.487186481118066</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.243651556963348</v>
+        <v>-2.654400561352555</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02140692201714134</v>
+        <v>-0.7064313877688119</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.595437777825418</v>
+        <v>3.991447431773903</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4461016800049724</v>
+        <v>0.6417795194106697</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.498573159283549</v>
+        <v>6.812452507253516</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-1.431930385429949</v>
+        <v>-1.659206936404111</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.528533372209816</v>
+        <v>3.411354916022204</v>
       </c>
     </row>
     <row r="25">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1060085626456077</v>
+        <v>-0.1154330762037031</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.0444663067307483</v>
+        <v>-0.04484257205260509</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1369578592821834</v>
+        <v>-0.1374475476607141</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.0340000107731477</v>
+        <v>-0.03404065592412454</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1062660469929197</v>
+        <v>-0.1099684586160369</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.02654416123226244</v>
+        <v>-0.03047223627927871</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.0007047093528534374</v>
+        <v>-0.008564316527873346</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.04230435595239817</v>
+        <v>0.04692264463947076</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.00663252090138689</v>
+        <v>0.008666650943002362</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.08786160988990613</v>
+        <v>0.09076687031097994</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.01809958643232428</v>
+        <v>-0.0209463313002202</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.04381060008232556</v>
+        <v>0.04175598192531731</v>
       </c>
     </row>
     <row r="28">
@@ -1264,7 +1264,7 @@
         <v>-0.1330647594330436</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-0.79658901150369</v>
+        <v>-0.7965890115037011</v>
       </c>
     </row>
     <row r="29">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.296843039725374</v>
+        <v>-2.372778548225706</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.806642080638134</v>
+        <v>-3.841008674710426</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.705774626855039</v>
+        <v>-1.880980387080047</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.373995951611407</v>
+        <v>-1.496363997797401</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.483279297226103</v>
+        <v>-1.578788176616053</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-2.157452265913627</v>
+        <v>-2.221492610010217</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.442615105438277</v>
+        <v>1.266351390612691</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.2205710844743512</v>
+        <v>-0.1231099518360599</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.632148441296455</v>
+        <v>2.615271660659902</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.789853168708685</v>
+        <v>2.423898291551672</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.395861626904816</v>
+        <v>1.302024624386218</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.6965453550890317</v>
+        <v>0.6508049193696795</v>
       </c>
     </row>
     <row r="31">
@@ -1342,7 +1342,7 @@
         <v>-0.001684071166557599</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.01008165190833276</v>
+        <v>-0.0100816519083329</v>
       </c>
     </row>
     <row r="32">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.02662712742566593</v>
+        <v>-0.027489359108961</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.04430849813808025</v>
+        <v>-0.04509996232298349</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.02265234530708533</v>
+        <v>-0.02513650604642535</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.01852316289951593</v>
+        <v>-0.02016842963365134</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.01862581629111911</v>
+        <v>-0.01972047259374584</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.02717589652096773</v>
+        <v>-0.02782901167032386</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.01714218195852273</v>
+        <v>0.0151752057796645</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.00271093395544938</v>
+        <v>-0.001602187218772109</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.03654030485658429</v>
+        <v>0.03618901375258231</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.03880887531861438</v>
+        <v>0.03354147672928823</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.01781776524488598</v>
+        <v>0.01661101403231433</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.00887189646023231</v>
+        <v>0.008287213004913894</v>
       </c>
     </row>
     <row r="34">
